--- a/data/diccionarios_data/Diccionario_g0.xlsx
+++ b/data/diccionarios_data/Diccionario_g0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAIN\Desktop\final_dashboard\data\diccionarios_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{220EF01F-4CA7-4B2F-AE21-6B27F1FD3FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECA1018-CC6A-4EF6-89CF-C064D3A43D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36135D49-895D-4758-8DE9-C7D5E82969C6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Nº</t>
   </si>
@@ -55,50 +55,6 @@
     <t>1	 - MUJER
 2	 - HOMBRE
 99	 - NO ESPECIFICADO</t>
-  </si>
-  <si>
-    <t>ENTIDAD_RES</t>
-  </si>
-  <si>
-    <t>Identifica la entidad de residencia del paciente.</t>
-  </si>
-  <si>
-    <t>01 - AGUASCALIENTES
-02 - BAJA CALIFORNIA
-03 - BAJA CALIFORNIA SUR
-04 - CAMPECHE
-05 - COAHUILA DE ZARAGOZA
-06 - COLIMA
-07 - CHIAPAS
-08 - CHIHUAHUA
-09 - CIUDAD DE MÉXICO
-10 - DURANGO
-11 - GUANAJUATO
-12 - GUERRERO
-13 - HIDALGO
-14 - JALISCO
-15 - MÉXICO
-16 - MICHOACÁN DE OCAMPO
-17 - MORELOS
-18 - NAYARIT
-19 - NUEVO LEÓN
-20 - OAXACA
-21 - PUEBLA
-22 - QUERÉTARO
-23 - QUINTANA ROO
-24 - SAN LUIS POTOSÍ
-25 - SINALOA
-26 - SONORA
-27 - TABASCO
-28 - TAMAULIPAS
-29 - TLAXCALA
-30 - VERACRUZ DE IGNACIO DE LA LLAVE
-31 - YUCATÁN
-32 - ZACATECAS
-36 - ESTADOS UNIDOS MEXICANOS
-97 - NO APLICA
-98 - SE IGNORA
-99 - NO ESPECIFICADO</t>
   </si>
   <si>
     <t>FECHA_DEF</t>
@@ -281,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -306,6 +262,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,9 +580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF470EA-4DDD-42E6-97D8-3D102B6C5CA7}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -633,7 +594,7 @@
     <col min="4" max="4" width="53.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -671,11 +632,11 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="65" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -685,11 +646,11 @@
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="117" x14ac:dyDescent="0.35">
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -699,11 +660,11 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="65" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -713,162 +674,148 @@
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.35">
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="117" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="65" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="117" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="117" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="65" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="117" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="117" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="117" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="117" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="312" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
